--- a/pbgi_configuration_template.xlsx
+++ b/pbgi_configuration_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E16E81D-08D7-4442-9E32-B5A82CE44B1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909ECA81-EC78-4D39-A667-769ADCFF2BFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="200">
   <si>
     <t>enable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -655,6 +655,10 @@
   </si>
   <si>
     <t>minOverlapLength=</t>
+  </si>
+  <si>
+    <t>assembly_enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2074,7 +2078,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2128,8 +2132,12 @@
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="10"/>

--- a/pbgi_configuration_template.xlsx
+++ b/pbgi_configuration_template.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909ECA81-EC78-4D39-A667-769ADCFF2BFE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6AC590-BD58-4492-9DB2-7F76A06040C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="preprocessing" sheetId="1" r:id="rId1"/>
     <sheet name="resequencing" sheetId="2" r:id="rId2"/>
     <sheet name="denovo" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="215">
   <si>
     <t>enable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,12 +101,6 @@
   </si>
   <si>
     <t>--poly_x_min_len</t>
-  </si>
-  <si>
-    <t>--cut_by_quality5</t>
-  </si>
-  <si>
-    <t>--cut_by_quality3</t>
   </si>
   <si>
     <t>-r</t>
@@ -658,6 +652,73 @@
   </si>
   <si>
     <t>assembly_enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./data/bacteria_db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alignment tool for CDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bowtie2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leaving the cell blank is to let the program use the corresponding default value.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>megablast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 64 1</t>
+  </si>
+  <si>
+    <t>[21,29,39,59,79,99,119,141]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20,0.95]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.8m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--cut_front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--cut_tail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -763,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -790,6 +851,14 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1074,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1092,7 +1161,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1101,7 +1170,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -1116,22 +1185,25 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
+      <c r="H2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -1170,7 +1242,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
@@ -1188,11 +1260,11 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -1206,7 +1278,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
@@ -1218,19 +1290,23 @@
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -1242,11 +1318,11 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -1260,13 +1336,17 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
@@ -1278,31 +1358,43 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
       <c r="G11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0.17708333333333334</v>
+      </c>
       <c r="G12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="H12" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -1310,13 +1402,17 @@
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="F13" s="2">
+        <v>36</v>
+      </c>
       <c r="G13" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1326,11 +1422,13 @@
       <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -1340,11 +1438,13 @@
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1354,11 +1454,13 @@
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1368,13 +1470,17 @@
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="H17" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -1386,7 +1492,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -1396,11 +1502,13 @@
       <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>10</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -1414,7 +1522,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1428,7 +1536,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -1438,39 +1546,41 @@
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>10</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
-        <v>26</v>
+      <c r="C23" s="16" t="s">
+        <v>213</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>27</v>
+      <c r="C24" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -1478,27 +1588,31 @@
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="D26" s="2">
+        <v>4</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -1506,13 +1620,15 @@
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D27" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="D27" s="2">
+        <v>20</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -1520,13 +1636,15 @@
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="D28" s="2">
+        <v>4</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -1534,13 +1652,15 @@
       <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="D29" s="2">
+        <v>20</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -1548,13 +1668,15 @@
       <c r="A30" s="3"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="D30" s="2">
+        <v>4</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -1562,9 +1684,11 @@
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="D31" s="2">
+        <v>20</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="2" t="s">
@@ -1576,9 +1700,11 @@
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="D32" s="2">
+        <v>4</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="2" t="s">
@@ -1590,9 +1716,11 @@
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="D33" s="2">
+        <v>20</v>
+      </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="2" t="s">
@@ -1604,13 +1732,13 @@
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -1618,13 +1746,15 @@
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="D35" s="2">
+        <v>15</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -1632,13 +1762,15 @@
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D36" s="2">
+        <v>40</v>
+      </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -1646,13 +1778,15 @@
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="D37" s="2">
+        <v>5</v>
+      </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -1660,9 +1794,11 @@
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D38" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="2"/>
@@ -1671,7 +1807,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="3"/>
@@ -1682,9 +1818,11 @@
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D40" s="2">
+        <v>15</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -1693,9 +1831,11 @@
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -1704,7 +1844,7 @@
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="3"/>
@@ -1715,9 +1855,11 @@
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="D43" s="2">
+        <v>30</v>
+      </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -1726,7 +1868,7 @@
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="3"/>
@@ -1737,7 +1879,7 @@
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="3"/>
@@ -1748,9 +1890,11 @@
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -1759,7 +1903,7 @@
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="3"/>
@@ -1770,9 +1914,11 @@
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="D48" s="2">
+        <v>30</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -1781,9 +1927,11 @@
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="D49" s="2">
+        <v>5</v>
+      </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -1792,9 +1940,11 @@
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="D50" s="2">
+        <v>20</v>
+      </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -1803,7 +1953,7 @@
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="3"/>
@@ -1814,7 +1964,7 @@
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="3"/>
@@ -1825,9 +1975,11 @@
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -1836,7 +1988,7 @@
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="3"/>
@@ -1847,9 +1999,11 @@
       <c r="A55" s="3"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -1858,7 +2012,7 @@
       <c r="A56" s="3"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="3"/>
@@ -1869,9 +2023,11 @@
       <c r="A57" s="3"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="D57" s="2">
+        <v>20</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -1880,9 +2036,11 @@
       <c r="A58" s="3"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -2075,10 +2233,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C727E70A-F24D-47AF-AD62-DB4A6E7944D4}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2089,21 +2247,21 @@
     <col min="4" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" t="s">
         <v>184</v>
-      </c>
-      <c r="J1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="b">
         <v>1</v>
@@ -2114,10 +2272,13 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
+      <c r="J2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B3" s="3">
         <v>30</v>
@@ -2133,7 +2294,7 @@
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B4" s="2" t="b">
         <v>1</v>
@@ -2149,329 +2310,383 @@
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="10" t="b">
+        <v>92</v>
+      </c>
+      <c r="F6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="10" t="b">
+        <v>92</v>
+      </c>
+      <c r="H6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="J6" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
       <c r="C7" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="12"/>
+        <v>154</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="I7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="6">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="C8" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="12"/>
+        <v>155</v>
+      </c>
+      <c r="H8" s="6"/>
       <c r="I8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="J8" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="H9" s="12"/>
+        <v>156</v>
+      </c>
+      <c r="H9" s="6"/>
       <c r="I9" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="J9" s="12"/>
+        <v>141</v>
+      </c>
+      <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>96</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2</v>
+      </c>
       <c r="C10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>16</v>
+      </c>
       <c r="E10" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="12"/>
+        <v>157</v>
+      </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="12"/>
+      <c r="J10" s="6">
+        <v>2.0000000000000001E-4</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="C11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="D11" s="3">
+        <v>250</v>
+      </c>
       <c r="E11" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="H11" s="12"/>
+        <v>158</v>
+      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="J11" s="6">
+        <v>5000</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2</v>
+      </c>
       <c r="C12" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="H12" s="10"/>
+        <v>195</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1000</v>
+      </c>
       <c r="I12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="12"/>
+      <c r="J12" s="6" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
       <c r="C13" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="H13" s="10"/>
+        <v>196</v>
+      </c>
+      <c r="H13" s="3">
+        <v>500</v>
+      </c>
       <c r="I13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="12"/>
+      <c r="J13" s="6">
+        <v>800</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.2</v>
+      </c>
       <c r="C14" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="12"/>
       <c r="H14" s="10"/>
       <c r="I14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="12"/>
+        <v>26</v>
+      </c>
+      <c r="J14" s="6">
+        <v>500</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="12"/>
       <c r="H15" s="10"/>
       <c r="I15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="J15" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="12"/>
       <c r="H16" s="10"/>
       <c r="I16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="J16" s="6">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="12"/>
       <c r="H17" s="10"/>
       <c r="I17" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="J17" s="12"/>
+        <v>142</v>
+      </c>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.9</v>
+      </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="12"/>
       <c r="H18" s="10"/>
       <c r="I18" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J18" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="3"/>
+        <v>104</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="12"/>
       <c r="H19" s="10"/>
       <c r="I19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" s="12"/>
+        <v>73</v>
+      </c>
+      <c r="J19" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3">
+        <v>4</v>
+      </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="12"/>
@@ -2479,17 +2694,19 @@
       <c r="I20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="J20" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="12"/>
@@ -2497,22 +2714,29 @@
       <c r="I21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="12"/>
+      <c r="J21" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="3"/>
+        <v>106</v>
+      </c>
+      <c r="B22" s="3">
+        <v>200</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2521,12 +2745,15 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2535,12 +2762,17 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="F24" s="3">
+        <v>100</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+      <c r="J24" s="15">
+        <v>400200</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2549,12 +2781,17 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F25" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.2</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="J25" s="6">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2563,12 +2800,17 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F26" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="F26" s="3">
+        <v>3</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -2577,13 +2819,16 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="8" t="s">
-        <v>82</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
@@ -2591,11 +2836,12 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
@@ -2603,9 +2849,11 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F29" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
@@ -2615,9 +2863,11 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="F30" s="3">
+        <v>2</v>
+      </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
@@ -2627,7 +2877,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -2639,7 +2889,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -2651,7 +2901,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2663,7 +2913,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -2675,7 +2925,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -2687,52 +2937,52 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F37" s="6"/>
       <c r="G37" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -2745,253 +2995,286 @@
       <c r="C39" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="D39" s="3"/>
       <c r="E39" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F39" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="F39" s="3"/>
       <c r="G39" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H39" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B40" s="3"/>
+        <v>172</v>
+      </c>
+      <c r="B40" s="3">
+        <v>4</v>
+      </c>
       <c r="C40" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B41" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="B41" s="3">
+        <v>10</v>
+      </c>
       <c r="C41" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B42" s="3"/>
+        <v>161</v>
+      </c>
+      <c r="B42" s="3">
+        <v>10</v>
+      </c>
       <c r="C42" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B43" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="C43" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B44" s="3"/>
+        <v>163</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
       <c r="C44" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B45" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
       <c r="C45" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B46" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="C46" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B49" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="B49" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="C49" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B52" s="3"/>
+        <v>171</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
       <c r="C52" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3005,8 +3288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5785C3-1CED-4F44-B48B-2EF61576BACF}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3023,31 +3306,34 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="b">
         <v>1</v>
       </c>
       <c r="G2" s="3"/>
+      <c r="H2" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="3"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B4" s="3" t="b">
         <v>1</v>
@@ -3060,42 +3346,42 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H6" s="3" t="b">
         <v>1</v>
@@ -3103,58 +3389,58 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="8" t="s">
@@ -3162,33 +3448,33 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="8" t="s">
@@ -3196,95 +3482,95 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F19" s="3"/>
     </row>
@@ -3296,31 +3582,31 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F22" s="3"/>
     </row>
@@ -3330,7 +3616,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -3340,7 +3626,7 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -3350,7 +3636,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F25" s="3"/>
     </row>
@@ -3360,7 +3646,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F26" s="3"/>
     </row>
@@ -3370,7 +3656,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -3380,7 +3666,7 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F28" s="3"/>
     </row>
@@ -3390,7 +3676,7 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F29" s="3"/>
     </row>
@@ -3400,7 +3686,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F30" s="3"/>
     </row>
@@ -3410,7 +3696,7 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F31" s="3"/>
     </row>
@@ -3420,7 +3706,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F32" s="3"/>
     </row>
@@ -3429,7 +3715,7 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F33" s="3"/>
     </row>
@@ -3438,7 +3724,7 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F34" s="3"/>
     </row>
@@ -3447,7 +3733,7 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F35" s="3"/>
     </row>
@@ -3457,71 +3743,71 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="G37" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B39" s="3" t="b">
         <v>1</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D39" s="3" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F39" s="3" t="b">
         <v>1</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H39" s="3" t="b">
         <v>1</v>
@@ -3529,235 +3815,235 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/pbgi_configuration_template.xlsx
+++ b/pbgi_configuration_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6AC590-BD58-4492-9DB2-7F76A06040C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DE6906-ACD3-469F-9806-67EE66BFF41D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -655,10 +655,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>./data/bacteria_db</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>alignment tool for CDS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -682,18 +678,6 @@
     <t>20 64 1</t>
   </si>
   <si>
-    <t>[21,29,39,59,79,99,119,141]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[20,0.95]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2*k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4.8m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -719,6 +703,22 @@
   </si>
   <si>
     <t>--cut_tail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,0.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21,29,39,59,79,99,119,141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ncbi_bacteria_db</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -824,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -853,12 +853,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1143,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1186,7 +1182,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
@@ -1216,21 +1212,17 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="b">
+      <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -1386,8 +1378,8 @@
       <c r="E12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F12" s="17">
-        <v>0.17708333333333334</v>
+      <c r="F12" s="15" t="s">
+        <v>214</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>72</v>
@@ -1559,8 +1551,8 @@
     <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="16" t="s">
-        <v>213</v>
+      <c r="C23" s="15" t="s">
+        <v>209</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
@@ -1573,8 +1565,8 @@
     <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="16" t="s">
-        <v>214</v>
+      <c r="C24" s="15" t="s">
+        <v>210</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
@@ -2235,31 +2227,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C727E70A-F24D-47AF-AD62-DB4A6E7944D4}">
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.25" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="29.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>151</v>
       </c>
@@ -2272,11 +2265,11 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="J2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="J2" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>185</v>
       </c>
@@ -2292,7 +2285,7 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>197</v>
       </c>
@@ -2308,7 +2301,7 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>147</v>
       </c>
@@ -2330,7 +2323,7 @@
       </c>
       <c r="J5" s="12"/>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>92</v>
       </c>
@@ -2358,9 +2351,8 @@
       <c r="I6" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>93</v>
       </c>
@@ -2379,7 +2371,7 @@
         <v>154</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>8</v>
@@ -2388,12 +2380,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>94</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>108</v>
@@ -2406,7 +2398,6 @@
       <c r="G8" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="6"/>
       <c r="I8" s="8" t="s">
         <v>59</v>
       </c>
@@ -2414,7 +2405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>95</v>
       </c>
@@ -2430,13 +2421,11 @@
       <c r="G9" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="H9" s="6"/>
       <c r="I9" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>96</v>
       </c>
@@ -2456,7 +2445,6 @@
       <c r="G10" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="H10" s="6"/>
       <c r="I10" s="8" t="s">
         <v>16</v>
       </c>
@@ -2464,12 +2452,12 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>83</v>
@@ -2484,7 +2472,6 @@
       <c r="G11" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="H11" s="6"/>
       <c r="I11" s="8" t="s">
         <v>69</v>
       </c>
@@ -2492,7 +2479,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>98</v>
       </c>
@@ -2517,10 +2504,10 @@
         <v>23</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>99</v>
       </c>
@@ -2548,7 +2535,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>100</v>
       </c>
@@ -2572,12 +2559,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>207</v>
+      <c r="B15" s="3">
+        <v>2</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2594,7 +2581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>102</v>
       </c>
@@ -2614,7 +2601,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>103</v>
       </c>
@@ -2630,9 +2617,8 @@
       <c r="I17" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>83</v>
       </c>
@@ -2654,7 +2640,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>104</v>
       </c>
@@ -2676,7 +2662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>4</v>
       </c>
@@ -2698,7 +2684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>105</v>
       </c>
@@ -2718,7 +2704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>106</v>
       </c>
@@ -2736,10 +2722,10 @@
         <v>71</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2753,10 +2739,10 @@
         <v>143</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2771,11 +2757,11 @@
       <c r="I24" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="J24" s="15">
+      <c r="J24" s="14">
         <v>400200</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2794,7 +2780,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2810,10 +2796,10 @@
         <v>37</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2828,9 +2814,8 @@
       <c r="I27" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2841,9 +2826,8 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2857,7 +2841,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2871,7 +2855,7 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2883,7 +2867,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2895,7 +2879,7 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2907,7 +2891,7 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2919,7 +2903,7 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2931,7 +2915,7 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2942,29 +2926,26 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B37" s="6"/>
       <c r="C37" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D37" s="6"/>
       <c r="E37" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="F37" s="6"/>
       <c r="G37" s="11" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>186</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>190</v>
@@ -2985,7 +2966,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>0</v>
       </c>
@@ -3005,7 +2986,7 @@
       </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>172</v>
       </c>
@@ -3023,9 +3004,9 @@
       <c r="G40" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>160</v>
       </c>
@@ -3043,9 +3024,9 @@
       <c r="G41" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>161</v>
       </c>
@@ -3063,14 +3044,14 @@
       <c r="G42" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>162</v>
@@ -3083,15 +3064,13 @@
       <c r="G43" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="3">
-        <v>0</v>
-      </c>
+      <c r="B44" s="3"/>
       <c r="C44" s="8" t="s">
         <v>163</v>
       </c>
@@ -3103,15 +3082,13 @@
       <c r="G44" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B45" s="3">
-        <v>0</v>
-      </c>
+      <c r="B45" s="3"/>
       <c r="C45" s="8" t="s">
         <v>164</v>
       </c>
@@ -3123,14 +3100,14 @@
       <c r="G45" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>165</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>165</v>
@@ -3143,9 +3120,9 @@
       <c r="G46" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>166</v>
       </c>
@@ -3161,9 +3138,9 @@
       <c r="G47" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>167</v>
       </c>
@@ -3179,9 +3156,9 @@
       <c r="G48" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>168</v>
       </c>
@@ -3199,9 +3176,9 @@
       <c r="G49" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>169</v>
       </c>
@@ -3217,9 +3194,9 @@
       <c r="G50" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>170</v>
       </c>
@@ -3235,9 +3212,9 @@
       <c r="G51" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>171</v>
       </c>
@@ -3256,24 +3233,24 @@
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="8" t="s">
+      <c r="B55" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B56" t="b">
+      <c r="B56" s="6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3321,7 +3298,7 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">

--- a/pbgi_configuration_template.xlsx
+++ b/pbgi_configuration_template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DE6906-ACD3-469F-9806-67EE66BFF41D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B73AD35-1E5C-4915-A3A4-7DE339A4EE4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="218">
   <si>
     <t>enable</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -592,10 +592,6 @@
   </si>
   <si>
     <t>denovo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set True or False for the "enable" parameters of software</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -667,10 +663,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Leaving the cell blank is to let the program use the corresponding default value.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>megablast</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -719,6 +711,25 @@
   </si>
   <si>
     <t>4:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We could fill in the number to customize the value of the parameter.</t>
+  </si>
+  <si>
+    <t>For a parameter with a value, leaving the cell blank is to let the program use the default value of the parameter.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For the parameter without value, leaving the cell blank is to make the program not use the parameter.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filling any character in the cell is to activate the parameter.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting True for the "enable" parameters of software to activate the software, and leaving the cell blank is to deactivate the software.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1137,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1155,7 +1166,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>181</v>
       </c>
@@ -1165,11 +1176,8 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1181,11 +1189,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H2"/>
+      <c r="J2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>177</v>
       </c>
@@ -1202,7 +1211,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1233,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1241,8 +1250,11 @@
         <v>6</v>
       </c>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="J5" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1259,8 +1271,11 @@
         <v>69</v>
       </c>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="J6" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1278,7 +1293,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -1300,7 +1315,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -1317,8 +1332,11 @@
         <v>70</v>
       </c>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="J9" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -1339,8 +1357,11 @@
       <c r="H10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+      <c r="J10" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -1362,7 +1383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1379,16 +1400,14 @@
         <v>67</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
@@ -1408,7 +1427,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
@@ -1424,7 +1443,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
@@ -1440,7 +1459,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
@@ -1552,7 +1571,7 @@
       <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
@@ -1566,7 +1585,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
@@ -2225,10 +2244,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C727E70A-F24D-47AF-AD62-DB4A6E7944D4}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2244,15 +2263,12 @@
     <col min="9" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>151</v>
       </c>
@@ -2265,13 +2281,10 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="J2" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B3" s="3">
         <v>30</v>
@@ -2284,10 +2297,13 @@
       <c r="H3" s="10"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" s="2" t="b">
         <v>1</v>
@@ -2300,8 +2316,9 @@
       <c r="H4" s="10"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>147</v>
       </c>
@@ -2315,15 +2332,16 @@
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="9" t="s">
         <v>150</v>
       </c>
       <c r="J5" s="12"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>92</v>
       </c>
@@ -2351,8 +2369,11 @@
       <c r="I6" s="8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>93</v>
       </c>
@@ -2371,7 +2392,7 @@
         <v>154</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>8</v>
@@ -2379,13 +2400,16 @@
       <c r="J7" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>94</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>108</v>
@@ -2404,8 +2428,9 @@
       <c r="J8" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>95</v>
       </c>
@@ -2424,8 +2449,9 @@
       <c r="I9" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>96</v>
       </c>
@@ -2451,13 +2477,16 @@
       <c r="J10" s="6">
         <v>2.0000000000000001E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>83</v>
@@ -2478,8 +2507,11 @@
       <c r="J11" s="6">
         <v>5000</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>98</v>
       </c>
@@ -2495,7 +2527,7 @@
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H12" s="3">
         <v>1000</v>
@@ -2504,10 +2536,11 @@
         <v>23</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>99</v>
       </c>
@@ -2523,7 +2556,7 @@
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H13" s="3">
         <v>500</v>
@@ -2534,8 +2567,9 @@
       <c r="J13" s="6">
         <v>800</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>100</v>
       </c>
@@ -2559,7 +2593,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>101</v>
       </c>
@@ -2581,7 +2615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>102</v>
       </c>
@@ -2722,7 +2756,7 @@
         <v>71</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2739,7 +2773,7 @@
         <v>143</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2796,7 +2830,7 @@
         <v>37</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2942,28 +2976,28 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E38" s="8" t="s">
+      <c r="F38" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="G38" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -3051,7 +3085,7 @@
         <v>162</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>162</v>
@@ -3107,7 +3141,7 @@
         <v>165</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>165</v>
@@ -3235,12 +3269,12 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B55" s="3" t="b">
         <v>1</v>
@@ -3248,7 +3282,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B56" s="6" t="b">
         <v>1</v>
@@ -3263,10 +3297,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5785C3-1CED-4F44-B48B-2EF61576BACF}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="L18" sqref="L18:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3281,15 +3315,12 @@
     <col min="8" max="8" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>151</v>
       </c>
@@ -3297,18 +3328,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>146</v>
       </c>
       <c r="B3" s="3"/>
       <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>151</v>
       </c>
@@ -3320,8 +3351,9 @@
       <c r="E4" s="10"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>147</v>
       </c>
@@ -3335,10 +3367,11 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>92</v>
       </c>
@@ -3363,8 +3396,11 @@
       <c r="H6" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>93</v>
       </c>
@@ -3380,8 +3416,11 @@
       <c r="G7" s="8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>94</v>
       </c>
@@ -3397,8 +3436,9 @@
       <c r="G8" s="8" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>95</v>
       </c>
@@ -3414,8 +3454,9 @@
       <c r="G9" s="8" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>96</v>
       </c>
@@ -3431,8 +3472,11 @@
       <c r="G10" s="8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>97</v>
       </c>
@@ -3448,8 +3492,11 @@
       <c r="G11" s="8" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>98</v>
       </c>
@@ -3463,7 +3510,7 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>99</v>
       </c>
@@ -3477,7 +3524,7 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>100</v>
       </c>
@@ -3491,7 +3538,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>101</v>
       </c>
@@ -3503,7 +3550,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>102</v>
       </c>
@@ -3740,28 +3787,28 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">

--- a/pbgi_configuration_template.xlsx
+++ b/pbgi_configuration_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B73AD35-1E5C-4915-A3A4-7DE339A4EE4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CE55DE-9472-45F2-9D47-052EAD0ED9FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -714,22 +714,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>We could fill in the number to customize the value of the parameter.</t>
-  </si>
-  <si>
-    <t>For a parameter with a value, leaving the cell blank is to let the program use the default value of the parameter.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>For the parameter without value, leaving the cell blank is to make the program not use the parameter.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Filling any character in the cell is to activate the parameter.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Setting True for the "enable" parameters of software to activate the software, and leaving the cell blank is to deactivate the software.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For a parameter with a value, leaving the cell blank means that let the program use the default value of the parameter.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Users could customize the value of the parameter by filling in the number in the cell.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Users could activate the parameter filling any character in the cell.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For a parameter without its value, leaving the cell blank means that making the program not use the parameter.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1151,7 +1152,7 @@
   <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1191,7 +1192,7 @@
       <c r="G2" s="3"/>
       <c r="H2"/>
       <c r="J2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
@@ -1272,7 +1273,7 @@
       </c>
       <c r="H6" s="2"/>
       <c r="J6" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -1333,7 +1334,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -2247,7 +2248,7 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,7 +2299,7 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="L3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2401,7 +2402,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2478,7 +2479,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -3300,7 +3301,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18:L19"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3336,7 +3337,7 @@
       <c r="B3" s="3"/>
       <c r="G3" s="3"/>
       <c r="J3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3417,7 +3418,7 @@
         <v>154</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3473,7 +3474,7 @@
         <v>157</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
